--- a/medicine/Psychotrope/Café_de_paysan/Café_de_paysan.xlsx
+++ b/medicine/Psychotrope/Café_de_paysan/Café_de_paysan.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Caf%C3%A9_de_paysan</t>
+          <t>Café_de_paysan</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Le café de paysan (néerlandais : Boerenkoffie, aussi appelé en frison Fryske boerekofje) est une boisson frisonne chaude et alcoolisée à base de bière, de café, d'œufs, de sucre et d'épices telles que la cannelle et la noix de muscade. Son aire d'extension a été plus grande, à l'image des vins épicés, et Gregory Maguire cite le boerenkoffie dans son livre Confessions of an ugly stepsister, qui se passe au siècle d'or hollandais à Haarlem[1],[2].
+Le café de paysan (néerlandais : Boerenkoffie, aussi appelé en frison Fryske boerekofje) est une boisson frisonne chaude et alcoolisée à base de bière, de café, d'œufs, de sucre et d'épices telles que la cannelle et la noix de muscade. Son aire d'extension a été plus grande, à l'image des vins épicés, et Gregory Maguire cite le boerenkoffie dans son livre Confessions of an ugly stepsister, qui se passe au siècle d'or hollandais à Haarlem,.
 </t>
         </is>
       </c>
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Caf%C3%A9_de_paysan</t>
+          <t>Café_de_paysan</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Préparation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les œufs sont battus avant que la préparation soit mise à chauffer.
 On y ajoute aussi parfois du brandy, du Beerenburg ou du cognac.
